--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_iris_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_iris_D75_R75_Pentropia.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.850562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.850562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.850562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.850562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.850562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.851562</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.852561</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.852561</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.852561</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.852561</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.852561</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.852561</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.853563</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.853563</t>
+          <t>2025-11-02T02:04:37.338374</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.854574</t>
+          <t>2025-11-02T02:04:37.345485</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.854574</t>
+          <t>2025-11-02T02:04:37.345485</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.854574</t>
+          <t>2025-11-02T02:04:37.345485</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.855565</t>
+          <t>2025-11-02T02:04:37.345485</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.855565</t>
+          <t>2025-11-02T02:04:37.346477</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.855565</t>
+          <t>2025-11-02T02:04:37.346477</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-02T00:12:05.855565</t>
+          <t>2025-11-02T02:04:37.346477</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_iris_D75_R75_Pentropia.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_iris_D75_R75_Pentropia.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783325</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783325</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783325</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783325</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783864</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783864</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783864</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.783864</t>
         </is>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.784387</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.784387</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.784387</t>
         </is>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.784387</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.784387</t>
         </is>
       </c>
     </row>
@@ -1807,7 +1807,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.784387</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.785388</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.787711</t>
         </is>
       </c>
     </row>
@@ -2071,7 +2071,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.787711</t>
         </is>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.788271</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.788271</t>
         </is>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.788271</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.338374</t>
+          <t>2025-11-03T00:10:51.788814</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.345485</t>
+          <t>2025-11-03T00:10:51.788814</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.345485</t>
+          <t>2025-11-03T00:10:51.788814</t>
         </is>
       </c>
     </row>
@@ -2687,7 +2687,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.345485</t>
+          <t>2025-11-03T00:10:51.789357</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.345485</t>
+          <t>2025-11-03T00:10:51.789357</t>
         </is>
       </c>
     </row>
@@ -2863,7 +2863,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.346477</t>
+          <t>2025-11-03T00:10:51.789357</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.346477</t>
+          <t>2025-11-03T00:10:51.789357</t>
         </is>
       </c>
     </row>
@@ -3039,7 +3039,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-02T02:04:37.346477</t>
+          <t>2025-11-03T00:10:51.789357</t>
         </is>
       </c>
     </row>
